--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\node.js\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8BAC23-77B2-459C-8CB6-79026245178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307C44B4-9388-4060-BC5E-BA1636607C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D22EBEA8-8484-4A64-8FA1-3D10B6D75275}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{D22EBEA8-8484-4A64-8FA1-3D10B6D75275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Kỳ học</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Tuổi trẻ đáng giá bao nhiêu</t>
+  </si>
+  <si>
+    <t>rvbhnj</t>
+  </si>
+  <si>
+    <t>sâsasa</t>
+  </si>
+  <si>
+    <t>sssss</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8364594D-F419-4B06-A105-7223E271658E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,9 +466,6 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -471,9 +477,6 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -485,9 +488,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -495,10 +496,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{BCEAF810-9E57-43AD-B2EA-CC217B526F4D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>